--- a/input-data/Cycle Infrastructure Synthasis.xlsx
+++ b/input-data/Cycle Infrastructure Synthasis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Speed</t>
   </si>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -301,142 +301,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -720,782 +880,854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="6"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="71" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="27" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="27"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="10"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
+      <c r="B20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" s="32" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="12" t="s">
+      <c r="H21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="6" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="22" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="25"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="25"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="32" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="25"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="59"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27" t="s">
+      <c r="G30" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="25"/>
+      <c r="H30" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="25"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="25"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="25"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="25"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="25"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="27" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="25"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="26"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L21:L38"/>
+  <mergeCells count="70">
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="L21:L29"/>
+    <mergeCell ref="L30:L38"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="J3:K5"/>
+    <mergeCell ref="J6:K11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="J12:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="I12:I20"/>
+    <mergeCell ref="H12:H20"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="I3:I11"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C12:C15"/>
@@ -1506,48 +1738,18 @@
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D21:E38"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E12:E20"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="C3:C6"/>
     <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:H8"/>
-    <mergeCell ref="I3:I11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="G12:G20"/>
-    <mergeCell ref="H12:I20"/>
-    <mergeCell ref="G21:I38"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="J3:K5"/>
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="J12:J20"/>
-    <mergeCell ref="K21:K38"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>